--- a/other-data/self-assessment/Dificuldades Experimentais (Responses) - manual edit.xlsx
+++ b/other-data/self-assessment/Dificuldades Experimentais (Responses) - manual edit.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olavobohreramaral/Dropbox/Brazilian Reproducibility Initiative/Análise/bri-analysis-fixing-data-issues(olavo)/other-data/self-assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AA2FE0-4252-7147-9138-5038B9FEB274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970B84FA-72AF-D24A-AD7D-DDB7D6A8C120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="24860" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="1560" windowWidth="27020" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$P$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$P$143</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="583">
   <si>
     <t>Timestamp</t>
   </si>
@@ -646,9 +646,6 @@
   </si>
   <si>
     <t>Dificuldades no cultivo desta população celular</t>
-  </si>
-  <si>
-    <t>MTT68</t>
   </si>
   <si>
     <t>Ana Paula Bastos</t>
@@ -2171,14 +2168,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P145"/>
+  <dimension ref="A1:P144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E141" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B127" sqref="B127"/>
-      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomRight" activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3321,129 +3318,131 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="7" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+    <row r="29" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29"/>
+      <c r="B29" t="s">
+        <v>580</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>370</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>581</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="1:16" s="7" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
         <v>45209.722210717599</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="7" customFormat="1" ht="126" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
-        <v>45205.844255740703</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>147</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="126" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
+        <v>45205.844255740703</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="E31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="10" t="s">
+      <c r="K31" s="1"/>
+      <c r="L31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="N30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O30" s="10" t="s">
+      <c r="N31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P31" s="6" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>45217.590871377302</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="1">
-        <v>9</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>45219.461748217604</v>
+        <v>45217.590871377302</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>160</v>
@@ -3452,7 +3451,7 @@
         <v>161</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>18</v>
@@ -3461,7 +3460,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J32" s="1">
         <v>9</v>
@@ -3474,12 +3473,12 @@
         <v>20</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>45217.591360925901</v>
+        <v>45219.461748217604</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>160</v>
@@ -3488,7 +3487,7 @@
         <v>161</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>18</v>
@@ -3497,7 +3496,7 @@
         <v>18</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J33" s="1">
         <v>9</v>
@@ -3506,19 +3505,16 @@
       <c r="L33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="N33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>45217.590328240702</v>
+        <v>45217.591360925901</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>160</v>
@@ -3527,7 +3523,7 @@
         <v>161</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>18</v>
@@ -3545,6 +3541,9 @@
       <c r="L34" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="M34" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="N34" s="1" t="s">
         <v>20</v>
       </c>
@@ -3554,16 +3553,16 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>45203.537413761602</v>
+        <v>45217.590328240702</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>18</v>
@@ -3572,7 +3571,7 @@
         <v>18</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1">
         <v>9</v>
@@ -3585,21 +3584,21 @@
         <v>20</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>45251.3975982755</v>
+        <v>45203.537413761602</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>18</v>
@@ -3608,37 +3607,34 @@
         <v>18</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>173</v>
+        <v>19</v>
+      </c>
+      <c r="J36" s="1">
+        <v>9</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>45251.411897280101</v>
+        <v>45251.3975982755</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>18</v>
@@ -3647,7 +3643,7 @@
         <v>18</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>173</v>
@@ -3657,13 +3653,10 @@
         <v>18</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>19</v>
@@ -3671,7 +3664,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>45251.408342534698</v>
+        <v>45251.411897280101</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>175</v>
@@ -3680,7 +3673,7 @@
         <v>171</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>18</v>
@@ -3689,20 +3682,23 @@
         <v>18</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>19</v>
@@ -3710,16 +3706,16 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>45266.663548530101</v>
+        <v>45251.408342534698</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>18</v>
@@ -3728,34 +3724,37 @@
         <v>18</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J39" s="1">
-        <v>7</v>
+        <v>181</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>45266.668032986097</v>
+        <v>45266.663548530101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>18</v>
@@ -3764,10 +3763,10 @@
         <v>18</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="J40" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
@@ -3782,7 +3781,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>45266.690880659698</v>
+        <v>45266.668032986097</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>187</v>
@@ -3791,32 +3790,26 @@
         <v>184</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>112</v>
+        <v>19</v>
+      </c>
+      <c r="J41" s="1">
+        <v>9</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>186</v>
@@ -3824,7 +3817,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>45266.691632395799</v>
+        <v>45266.690880659698</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>187</v>
@@ -3833,26 +3826,32 @@
         <v>184</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="1">
-        <v>9</v>
+        <v>189</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>186</v>
@@ -3860,7 +3859,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>45266.715648148202</v>
+        <v>45266.691632395799</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>187</v>
@@ -3869,16 +3868,13 @@
         <v>184</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>19</v>
@@ -3891,18 +3887,15 @@
         <v>20</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>45266.702774189798</v>
+        <v>45266.715648148202</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>187</v>
@@ -3911,13 +3904,16 @@
         <v>184</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>19</v>
@@ -3930,7 +3926,10 @@
         <v>20</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>194</v>
@@ -3938,16 +3937,16 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>45209.690652129597</v>
+        <v>45266.702774189798</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>18</v>
@@ -3956,37 +3955,34 @@
         <v>18</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>199</v>
+        <v>19</v>
+      </c>
+      <c r="J45" s="1">
+        <v>9</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>45218.492395381902</v>
+        <v>45209.690652129597</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>18</v>
@@ -3995,34 +3991,37 @@
         <v>18</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>45209.691256967599</v>
+        <v>45218.492395381902</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>18</v>
@@ -4031,10 +4030,10 @@
         <v>18</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="1">
-        <v>9</v>
+        <v>204</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1" t="s">
@@ -4052,13 +4051,13 @@
         <v>45209.5823840046</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>18</v>
@@ -4080,7 +4079,7 @@
         <v>20</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
@@ -4088,10 +4087,10 @@
         <v>45209.5831725116</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>119</v>
@@ -4116,7 +4115,7 @@
         <v>20</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
@@ -4124,13 +4123,13 @@
         <v>45208.920864016203</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>18</v>
@@ -4152,10 +4151,10 @@
         <v>18</v>
       </c>
       <c r="O50" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P50" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
@@ -4163,10 +4162,10 @@
         <v>45208.926378541699</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>139</v>
@@ -4199,10 +4198,10 @@
         <v>45208.928651805603</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>84</v>
@@ -4214,17 +4213,17 @@
         <v>18</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>20</v>
@@ -4238,10 +4237,10 @@
         <v>45208.676698935204</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>17</v>
@@ -4250,16 +4249,16 @@
         <v>20</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
@@ -4269,7 +4268,7 @@
         <v>18</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>19</v>
@@ -4280,10 +4279,10 @@
         <v>45216.824002476897</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>130</v>
@@ -4295,23 +4294,23 @@
         <v>18</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M54" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>19</v>
@@ -4322,38 +4321,38 @@
         <v>45216.827550486101</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="D55" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M55" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>19</v>
@@ -4364,10 +4363,10 @@
         <v>45216.8336634722</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>203</v>
@@ -4379,23 +4378,23 @@
         <v>18</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>19</v>
@@ -4406,22 +4405,22 @@
         <v>45208.413308449097</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="J57" s="1">
         <v>8</v>
@@ -4431,16 +4430,16 @@
         <v>18</v>
       </c>
       <c r="M57" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O57" s="1" t="s">
+      <c r="P57" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
@@ -4448,10 +4447,10 @@
         <v>45208.410991307901</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>90</v>
@@ -4463,7 +4462,7 @@
         <v>18</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J58" s="1">
         <v>8</v>
@@ -4473,16 +4472,16 @@
         <v>18</v>
       </c>
       <c r="M58" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O58" s="1" t="s">
+      <c r="P58" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.15">
@@ -4490,41 +4489,41 @@
         <v>45209.683737685198</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M59" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="N59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O59" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
@@ -4532,10 +4531,10 @@
         <v>45209.687206342598</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>191</v>
@@ -4544,13 +4543,13 @@
         <v>18</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="J60" s="1">
         <v>8</v>
@@ -4560,16 +4559,16 @@
         <v>18</v>
       </c>
       <c r="M60" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="N60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="P60" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.15">
@@ -4577,10 +4576,10 @@
         <v>45203.606648101901</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>79</v>
@@ -4592,7 +4591,7 @@
         <v>18</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J61" s="1">
         <v>8</v>
@@ -4602,16 +4601,16 @@
         <v>18</v>
       </c>
       <c r="M61" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O61" s="1" t="s">
+      <c r="P61" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
@@ -4619,13 +4618,13 @@
         <v>45203.600251736098</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>18</v>
@@ -4634,7 +4633,7 @@
         <v>18</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J62" s="1">
         <v>8</v>
@@ -4644,13 +4643,13 @@
         <v>18</v>
       </c>
       <c r="M62" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.15">
@@ -4658,13 +4657,13 @@
         <v>45203.593426423598</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>18</v>
@@ -4683,13 +4682,13 @@
         <v>20</v>
       </c>
       <c r="M63" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
@@ -4697,38 +4696,38 @@
         <v>45217.502330185198</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M64" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.15">
@@ -4736,13 +4735,13 @@
         <v>45217.502330185198</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>18</v>
@@ -4751,23 +4750,23 @@
         <v>18</v>
       </c>
       <c r="I65" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M65" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
@@ -4775,13 +4774,13 @@
         <v>45217.502330185198</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>18</v>
@@ -4790,23 +4789,23 @@
         <v>18</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M66" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
@@ -4814,10 +4813,10 @@
         <v>45208.8460207639</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>154</v>
@@ -4826,16 +4825,16 @@
         <v>20</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>57</v>
@@ -4847,7 +4846,7 @@
         <v>20</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
@@ -4855,10 +4854,10 @@
         <v>45208.851432685202</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>180</v>
@@ -4870,10 +4869,10 @@
         <v>18</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
@@ -4883,7 +4882,7 @@
         <v>20</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
@@ -4891,22 +4890,22 @@
         <v>45210.448006689803</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="J69" s="1">
         <v>9</v>
@@ -4919,7 +4918,7 @@
         <v>20</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.15">
@@ -4927,10 +4926,10 @@
         <v>45210.447476886598</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>116</v>
@@ -4942,7 +4941,7 @@
         <v>18</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J70" s="1">
         <v>9</v>
@@ -4955,10 +4954,10 @@
         <v>18</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
@@ -4966,13 +4965,13 @@
         <v>45205.529653553203</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>18</v>
@@ -4994,7 +4993,7 @@
         <v>20</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
@@ -5002,10 +5001,10 @@
         <v>45205.536330648101</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>79</v>
@@ -5017,10 +5016,10 @@
         <v>18</v>
       </c>
       <c r="I72" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
@@ -5030,7 +5029,7 @@
         <v>20</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
@@ -5038,10 +5037,10 @@
         <v>45205.527275752298</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>137</v>
@@ -5053,10 +5052,10 @@
         <v>18</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
@@ -5066,10 +5065,10 @@
         <v>18</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.15">
@@ -5077,10 +5076,10 @@
         <v>45205.549230115699</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>84</v>
@@ -5092,25 +5091,25 @@
         <v>18</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="L74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O74" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="P74" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
@@ -5118,13 +5117,13 @@
         <v>45202.760633240701</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>18</v>
@@ -5146,7 +5145,7 @@
         <v>20</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
@@ -5154,13 +5153,13 @@
         <v>45202.7592696875</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>18</v>
@@ -5182,7 +5181,7 @@
         <v>20</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.15">
@@ -5190,13 +5189,13 @@
         <v>45202.756733379603</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>18</v>
@@ -5218,10 +5217,10 @@
         <v>18</v>
       </c>
       <c r="O77" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P77" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.15">
@@ -5229,22 +5228,22 @@
         <v>45224.7276439583</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>112</v>
@@ -5254,16 +5253,16 @@
         <v>18</v>
       </c>
       <c r="M78" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O78" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="N78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O78" s="1" t="s">
+      <c r="P78" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.15">
@@ -5271,25 +5270,25 @@
         <v>45224.731792719896</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>112</v>
@@ -5302,7 +5301,7 @@
         <v>20</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.15">
@@ -5310,13 +5309,13 @@
         <v>45203.639571747699</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>18</v>
@@ -5338,7 +5337,7 @@
         <v>20</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.15">
@@ -5346,10 +5345,10 @@
         <v>45203.639571747699</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>125</v>
@@ -5374,7 +5373,7 @@
         <v>20</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.15">
@@ -5382,13 +5381,13 @@
         <v>45201.777918379601</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>18</v>
@@ -5410,7 +5409,7 @@
         <v>20</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.15">
@@ -5418,38 +5417,38 @@
         <v>45201.664917650502</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M83" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.15">
@@ -5457,22 +5456,22 @@
         <v>45223.615379814801</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" t="s">
         <v>340</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" t="s">
-        <v>341</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>19</v>
@@ -5496,13 +5495,13 @@
         <v>45223.615805567097</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="D85" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>18</v>
@@ -5511,7 +5510,7 @@
         <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>19</v>
@@ -5535,13 +5534,13 @@
         <v>45223.616485983803</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="D86" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>18</v>
@@ -5550,7 +5549,7 @@
         <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>19</v>
@@ -5574,13 +5573,13 @@
         <v>45198.624168588001</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="D87" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>18</v>
@@ -5589,23 +5588,23 @@
         <v>18</v>
       </c>
       <c r="I87" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M87" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O87" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>19</v>
@@ -5616,25 +5615,25 @@
         <v>45198.621575069403</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>81</v>
@@ -5644,13 +5643,13 @@
         <v>18</v>
       </c>
       <c r="M88" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O88" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>19</v>
@@ -5661,19 +5660,19 @@
         <v>45204.723446423603</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>18</v>
@@ -5692,10 +5691,10 @@
         <v>18</v>
       </c>
       <c r="O89" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="P89" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.15">
@@ -5703,13 +5702,13 @@
         <v>45204.757793124998</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>18</v>
@@ -5731,7 +5730,7 @@
         <v>20</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.15">
@@ -5739,10 +5738,10 @@
         <v>45204.695005208298</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>137</v>
@@ -5751,19 +5750,19 @@
         <v>20</v>
       </c>
       <c r="F91" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
@@ -5773,7 +5772,7 @@
         <v>18</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>19</v>
@@ -5784,10 +5783,10 @@
         <v>45204.746137164402</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>176</v>
@@ -5796,7 +5795,7 @@
         <v>20</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>18</v>
@@ -5815,7 +5814,7 @@
         <v>20</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.15">
@@ -5823,22 +5822,22 @@
         <v>45209.4576344792</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>65</v>
@@ -5848,13 +5847,13 @@
         <v>18</v>
       </c>
       <c r="M93" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P93" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
@@ -5862,22 +5861,22 @@
         <v>45209.4623038426</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>65</v>
@@ -5887,13 +5886,13 @@
         <v>18</v>
       </c>
       <c r="M94" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P94" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.15">
@@ -5901,10 +5900,10 @@
         <v>45208.483357245401</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>197</v>
@@ -5916,23 +5915,23 @@
         <v>18</v>
       </c>
       <c r="I95" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M95" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P95" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.15">
@@ -5940,41 +5939,41 @@
         <v>45208.487027187497</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F96" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="J96" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M96" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P96" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="154" x14ac:dyDescent="0.15">
@@ -5982,41 +5981,41 @@
         <v>45217.5130022222</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M97" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O97" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="N97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O97" s="1" t="s">
+      <c r="P97" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
@@ -6024,10 +6023,10 @@
         <v>45217.514991446798</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>168</v>
@@ -6039,26 +6038,26 @@
         <v>18</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M98" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="P98" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="409.6" x14ac:dyDescent="0.15">
@@ -6066,10 +6065,10 @@
         <v>45217.511266319401</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>38</v>
@@ -6081,29 +6080,29 @@
         <v>18</v>
       </c>
       <c r="H99" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I99" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="J99" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M99" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="P99" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.15">
@@ -6111,10 +6110,10 @@
         <v>45208.433522280102</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>191</v>
@@ -6126,23 +6125,23 @@
         <v>18</v>
       </c>
       <c r="I100" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J100" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M100" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P100" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
@@ -6150,10 +6149,10 @@
         <v>45208.433988865698</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>148</v>
@@ -6165,10 +6164,10 @@
         <v>18</v>
       </c>
       <c r="I101" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1" t="s">
@@ -6178,7 +6177,7 @@
         <v>20</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.15">
@@ -6186,14 +6185,14 @@
         <v>45205.892894814802</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="E102" s="1" t="s">
         <v>18</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>19</v>
@@ -6217,7 +6216,7 @@
         <v>18</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P102" s="1" t="s">
         <v>19</v>
@@ -6228,13 +6227,13 @@
         <v>45197.950956238397</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>18</v>
@@ -6264,13 +6263,13 @@
         <v>45197.950956238397</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="D104" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>18</v>
@@ -6300,10 +6299,10 @@
         <v>45212.586671273202</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>162</v>
@@ -6315,7 +6314,7 @@
         <v>18</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J105" s="1">
         <v>7</v>
@@ -6325,13 +6324,13 @@
         <v>18</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
@@ -6339,10 +6338,10 @@
         <v>45212.5806600695</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>163</v>
@@ -6354,7 +6353,7 @@
         <v>18</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J106" s="1">
         <v>7</v>
@@ -6364,16 +6363,16 @@
         <v>18</v>
       </c>
       <c r="M106" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O106" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="N106" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="P106" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
@@ -6381,41 +6380,41 @@
         <v>45212.5730231134</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="D107" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I107" s="1" t="s">
+      <c r="J107" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M107" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O107" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="N107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="P107" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.15">
@@ -6423,10 +6422,10 @@
         <v>45212.583742245399</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>38</v>
@@ -6438,26 +6437,26 @@
         <v>18</v>
       </c>
       <c r="I108" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M108" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O108" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="N108" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="P108" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.15">
@@ -6465,10 +6464,10 @@
         <v>45219.645012407404</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>165</v>
@@ -6480,7 +6479,7 @@
         <v>18</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J109" s="1">
         <v>7</v>
@@ -6490,13 +6489,13 @@
         <v>18</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.15">
@@ -6504,13 +6503,13 @@
         <v>45203.6144950116</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="D110" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>18</v>
@@ -6532,10 +6531,10 @@
         <v>18</v>
       </c>
       <c r="O110" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="P110" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.15">
@@ -6543,13 +6542,13 @@
         <v>45203.6144950116</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="D111" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>18</v>
@@ -6571,10 +6570,10 @@
         <v>18</v>
       </c>
       <c r="O111" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="P111" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="P111" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.15">
@@ -6582,13 +6581,13 @@
         <v>45203.6144950116</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="D112" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>18</v>
@@ -6610,10 +6609,10 @@
         <v>18</v>
       </c>
       <c r="O112" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="P112" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.15">
@@ -6621,10 +6620,10 @@
         <v>45208.542757638897</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>119</v>
@@ -6636,10 +6635,10 @@
         <v>18</v>
       </c>
       <c r="I113" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="J113" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1" t="s">
@@ -6649,10 +6648,10 @@
         <v>18</v>
       </c>
       <c r="O113" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="P113" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.15">
@@ -6660,10 +6659,10 @@
         <v>45272.882239861101</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>31</v>
@@ -6672,16 +6671,16 @@
         <v>18</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H114" s="1" t="s">
+      <c r="I114" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>65</v>
@@ -6691,13 +6690,13 @@
         <v>18</v>
       </c>
       <c r="M114" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O114" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="P114" s="1" t="s">
         <v>19</v>
@@ -6708,10 +6707,10 @@
         <v>45272.536478506903</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>36</v>
@@ -6720,32 +6719,32 @@
         <v>20</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I115" s="3" t="s">
+      <c r="J115" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M115" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O115" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="N115" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O115" s="1" t="s">
+      <c r="P115" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.15">
@@ -6753,13 +6752,13 @@
         <v>45208.498882372704</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="D116" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>18</v>
@@ -6798,10 +6797,10 @@
         <v>45208.639769641202</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>62</v>
@@ -6813,10 +6812,10 @@
         <v>18</v>
       </c>
       <c r="I117" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1" t="s">
@@ -6826,10 +6825,10 @@
         <v>18</v>
       </c>
       <c r="O117" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P117" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.15">
@@ -6837,10 +6836,10 @@
         <v>45205.8012878472</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>180</v>
@@ -6852,7 +6851,7 @@
         <v>18</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>115</v>
@@ -6865,10 +6864,10 @@
         <v>18</v>
       </c>
       <c r="O118" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="P118" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.15">
@@ -6876,10 +6875,10 @@
         <v>45209.455621319401</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>97</v>
@@ -6891,7 +6890,7 @@
         <v>18</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J119" s="1">
         <v>7</v>
@@ -6901,16 +6900,16 @@
         <v>18</v>
       </c>
       <c r="M119" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O119" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="N119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O119" s="1" t="s">
+      <c r="P119" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.15">
@@ -6918,13 +6917,13 @@
         <v>45209.5452423264</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="D120" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>18</v>
@@ -6936,26 +6935,26 @@
         <v>19</v>
       </c>
       <c r="I120" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M120" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P120" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.15">
@@ -6963,10 +6962,10 @@
         <v>45209.552938796303</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>164</v>
@@ -6978,23 +6977,23 @@
         <v>18</v>
       </c>
       <c r="I121" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J121" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="K121" s="1"/>
       <c r="L121" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M121" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O121" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O121" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="P121" s="1" t="s">
         <v>19</v>
@@ -7005,10 +7004,10 @@
         <v>45209.538401979204</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>165</v>
@@ -7020,13 +7019,13 @@
         <v>20</v>
       </c>
       <c r="H122" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="J122" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="K122" s="1"/>
       <c r="L122" s="1" t="s">
@@ -7036,10 +7035,10 @@
         <v>18</v>
       </c>
       <c r="O122" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="P122" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.15">
@@ -7047,10 +7046,10 @@
         <v>45202.694704050897</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>97</v>
@@ -7062,10 +7061,10 @@
         <v>18</v>
       </c>
       <c r="I123" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J123" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" s="1" t="s">
@@ -7083,41 +7082,41 @@
         <v>45202.704485914401</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="D124" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I124" s="3" t="s">
+      <c r="J124" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M124" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O124" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O124" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="P124" s="1" t="s">
         <v>19</v>
@@ -7128,10 +7127,10 @@
         <v>45202.712018437502</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>36</v>
@@ -7140,13 +7139,13 @@
         <v>20</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>65</v>
@@ -7159,7 +7158,7 @@
         <v>18</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P125" s="1" t="s">
         <v>19</v>
@@ -7170,28 +7169,28 @@
         <v>45202.715831875001</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="D126" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="G126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" s="1" t="s">
+      <c r="J126" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="K126" s="1"/>
       <c r="L126" s="1" t="s">
@@ -7209,38 +7208,38 @@
         <v>45207.868535219903</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I127" s="1" t="s">
+      <c r="J127" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="K127" s="1"/>
       <c r="L127" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M127" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O127" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="N127" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O127" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="P127" s="1" t="s">
         <v>19</v>
@@ -7251,10 +7250,10 @@
         <v>45207.877900706</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>168</v>
@@ -7266,23 +7265,23 @@
         <v>18</v>
       </c>
       <c r="I128" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J128" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="K128" s="1"/>
       <c r="L128" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M128" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O128" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="P128" s="1" t="s">
         <v>19</v>
@@ -7293,38 +7292,38 @@
         <v>45197.475053726899</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="J129" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="K129" s="1"/>
       <c r="L129" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N129" s="1" t="s">
         <v>20</v>
@@ -7338,38 +7337,38 @@
         <v>45197.475053726899</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F130" s="1" t="s">
+      <c r="G130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="J130" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="K130" s="1"/>
       <c r="L130" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N130" s="1" t="s">
         <v>20</v>
@@ -7383,38 +7382,38 @@
         <v>45197.475053726899</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F131" s="1" t="s">
+      <c r="G131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="J131" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="K131" s="1"/>
       <c r="L131" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N131" s="1" t="s">
         <v>20</v>
@@ -7428,38 +7427,38 @@
         <v>45209.632336562499</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I132" s="1" t="s">
+      <c r="J132" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="K132" s="1"/>
       <c r="L132" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M132" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P132" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="N132" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P132" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.15">
@@ -7467,10 +7466,10 @@
         <v>45209.641047835699</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>25</v>
@@ -7482,26 +7481,26 @@
         <v>18</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K133" s="1"/>
       <c r="L133" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M133" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O133" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="N133" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O133" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="P133" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.15">
@@ -7509,13 +7508,13 @@
         <v>45209.643334467597</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="D134" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>18</v>
@@ -7524,7 +7523,7 @@
         <v>18</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J134" s="1">
         <v>7</v>
@@ -7537,7 +7536,7 @@
         <v>20</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.15">
@@ -7545,10 +7544,10 @@
         <v>45213.820525104202</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>163</v>
@@ -7560,23 +7559,23 @@
         <v>18</v>
       </c>
       <c r="I135" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J135" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="K135" s="1"/>
       <c r="L135" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M135" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P135" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.15">
@@ -7584,10 +7583,10 @@
         <v>45213.831946886603</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>31</v>
@@ -7599,28 +7598,28 @@
         <v>18</v>
       </c>
       <c r="I136" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J136" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="K136" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="K136" s="1" t="s">
+      <c r="L136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M136" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="L136" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M136" s="1" t="s">
+      <c r="N136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O136" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="N136" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O136" s="1" t="s">
+      <c r="P136" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="P136" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.15">
@@ -7628,41 +7627,41 @@
         <v>45213.840462870401</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="D137" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I137" s="1" t="s">
+      <c r="J137" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="K137" s="1"/>
       <c r="L137" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M137" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O137" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="N137" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O137" s="1" t="s">
+      <c r="P137" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.15">
@@ -7670,10 +7669,10 @@
         <v>45209.6161252315</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>103</v>
@@ -7685,10 +7684,10 @@
         <v>18</v>
       </c>
       <c r="I138" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J138" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="K138" s="1"/>
       <c r="L138" s="1" t="s">
@@ -7706,10 +7705,10 @@
         <v>45218.594957789399</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>25</v>
@@ -7721,7 +7720,7 @@
         <v>18</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J139" s="1">
         <v>8</v>
@@ -7734,10 +7733,10 @@
         <v>18</v>
       </c>
       <c r="O139" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="P139" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.15">
@@ -7745,25 +7744,25 @@
         <v>45209.5634404745</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="J140" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K140" s="1"/>
       <c r="L140" s="1" t="s">
@@ -7773,7 +7772,7 @@
         <v>20</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="409.6" x14ac:dyDescent="0.15">
@@ -7781,41 +7780,41 @@
         <v>45209.440201736099</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I141" s="3" t="s">
+      <c r="J141" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="K141" s="1"/>
       <c r="L141" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M141" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O141" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="N141" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O141" s="1" t="s">
+      <c r="P141" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="P141" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.15">
@@ -7823,13 +7822,13 @@
         <v>45209.7052256713</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="D142" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>18</v>
@@ -7844,10 +7843,10 @@
         <v>30</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K142" s="1"/>
       <c r="L142" s="1" t="s">
@@ -7868,10 +7867,10 @@
         <v>45209.731489756901</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>154</v>
@@ -7886,10 +7885,10 @@
         <v>18</v>
       </c>
       <c r="H143" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I143" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>112</v>
@@ -7899,16 +7898,16 @@
         <v>18</v>
       </c>
       <c r="M143" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O143" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="N143" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O143" s="1" t="s">
+      <c r="P143" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="P143" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.15">
@@ -7916,10 +7915,10 @@
         <v>45203.460390520799</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>45</v>
@@ -7928,68 +7927,42 @@
         <v>20</v>
       </c>
       <c r="F144" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I144" s="1" t="s">
+      <c r="J144" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="J144" s="1" t="s">
+      <c r="K144" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="K144" s="1" t="s">
+      <c r="L144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M144" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="L144" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M144" s="1" t="s">
+      <c r="N144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P144" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="N144" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P144" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B145" t="s">
-        <v>581</v>
-      </c>
-      <c r="C145" t="s">
-        <v>133</v>
-      </c>
-      <c r="D145" t="s">
-        <v>371</v>
-      </c>
-      <c r="E145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>18</v>
-      </c>
-      <c r="I145" t="s">
-        <v>582</v>
-      </c>
-      <c r="J145">
-        <v>8</v>
-      </c>
-      <c r="L145" t="s">
-        <v>20</v>
-      </c>
-      <c r="N145" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P144" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P144">
-      <sortCondition ref="A2:A144"/>
+  <autoFilter ref="A1:P143" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P143">
+      <sortCondition ref="A2:A143"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P144">
+    <sortCondition ref="C2:C144"/>
+  </sortState>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
